--- a/test-case/测试用例/测试用例.xlsx
+++ b/test-case/测试用例/测试用例.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\metric-sys\test-case\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EF941-7676-4BDD-AB64-FF1AAFB58ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230230A-38F3-424E-A6DA-F3391D030C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="1890" windowWidth="30860" windowHeight="17160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="5" r:id="rId1"/>
-    <sheet name="指标维护测试用例" sheetId="1" r:id="rId2"/>
-    <sheet name="指标目录审批测试用例" sheetId="6" r:id="rId3"/>
-    <sheet name="指标目录维护测试用例" sheetId="2" r:id="rId4"/>
-    <sheet name="公共指标体系" sheetId="3" r:id="rId5"/>
-    <sheet name="卫健委指标体系" sheetId="4" r:id="rId6"/>
+    <sheet name="指标维护" sheetId="1" r:id="rId2"/>
+    <sheet name="指标审批" sheetId="9" r:id="rId3"/>
+    <sheet name="指标目录审批" sheetId="6" r:id="rId4"/>
+    <sheet name="指标目录维护" sheetId="2" r:id="rId5"/>
+    <sheet name="指标数据查询分析" sheetId="8" r:id="rId6"/>
+    <sheet name="系统首页" sheetId="7" r:id="rId7"/>
+    <sheet name="系统管理" sheetId="10" r:id="rId8"/>
+    <sheet name="公共指标体系" sheetId="3" r:id="rId9"/>
+    <sheet name="卫健委指标体系" sheetId="4" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -37,6 +41,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yu Xiao:</t>
@@ -45,6 +50,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,13 +71,14 @@
     <author>Yu Xiao</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{52E05CBC-E436-465D-A889-A2C727E06645}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4459A229-7C54-489D-A279-743099717BC5}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yu Xiao:</t>
@@ -80,6 +87,118 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以通过执行脚本校验或通过比对截图校验。
+如果使用脚本校验，需提供校验用脚本，以及脚本调用说明。
+如果通过截图对比校验，需要提供测试前及预期结果截图。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yu Xiao</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{52E05CBC-E436-465D-A889-A2C727E06645}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yu Xiao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以通过执行脚本校验或通过比对截图校验。
+如果使用脚本校验，需提供校验用脚本，以及脚本调用说明。
+如果通过截图对比校验，需要提供测试前及预期结果截图。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yu Xiao</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{37435C52-2E0A-42B8-A6AA-158A378F9035}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yu Xiao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以通过执行脚本校验或通过比对截图校验。
+如果使用脚本校验，需提供校验用脚本，以及脚本调用说明。
+如果通过截图对比校验，需要提供测试前及预期结果截图。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yu Xiao</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{229D5DB1-7237-42A9-B081-012E127FCECA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yu Xiao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -95,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="302">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -138,19 +257,9 @@
 </t>
   </si>
   <si>
-    <t>指标维护-编辑衍生指标</t>
-  </si>
-  <si>
     <t>基础指标维度设置</t>
   </si>
   <si>
-    <t>基础指标维度设置--增加维度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基础指标维度设置--删除维度
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">基础指标维度设置--仅修改已有维度的上卷方式
 </t>
   </si>
@@ -161,57 +270,54 @@
     <t>衍生指标维度设置--仅支持修改已关联维度的上卷方式</t>
   </si>
   <si>
-    <t>指标试算（暂不展示）</t>
-  </si>
-  <si>
     <t>查询结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
 2.点击菜单 指标体系管理--&gt;指标维护
 3.点击表格底部分页栏按钮显示分页数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标列表分页显示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1、使用标准测试数据集。
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标维护-组合条件查询</t>
   </si>
   <si>
     <t>指标维护-组合条件查询</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标维护-单项条件查询</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面效果与预期结果相符</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-003</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-004</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -219,7 +325,7 @@
 3.对表格数据进行查询
        输入内容---指标代码：b000000024（改查找项可唯一确定某项数据列表）
 输入完成后点击右侧【查询】按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -229,7 +335,7 @@
                       指标类型：衍生指标
                       指标审批状态：待审批
 输入完成后点击右侧【查询】按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -240,25 +346,25 @@
                      指标审批状态：已生效
 输入完成后点击右侧【查询】按钮
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-006</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">指标维护-查看基础指标详情
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、使用标准测试数据集。
 2、执行用例2-22-005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -268,31 +374,31 @@
 输入完成后点击右侧【查询】按钮
 4. 指标列表中显示代码为b000000030的指标条目，点击该条目的“配置”按钮。
 5.在弹出的“指标配置”窗口中，检查各项数据是否与用例2-22-005中的输入相符。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面显示提交成功。
 执行用例2-22-006验证数据保存的正确性。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标各项属性与用例2-22-005中的输入相符。
 指标维护状态应为“待审批”</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-007</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面显示提交成功。
 执行用例2-22-008验证数据保存的正确性。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、使用标准测试数据集。
 2、执行用例2-22-007</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -302,20 +408,20 @@
 输入完成后点击右侧【查询】按钮
 4. 指标列表中显示代码为d000000030的指标条目，点击该条目的“配置”按钮。
 5.在弹出的“指标配置”窗口中，检查各项数据是否与用例2-22-007中的输入相符。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-008</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标各项属性与用例2-22-007中的输入相符。
 指标维护状态应为“待审批”</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-009</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -331,16 +437,16 @@
         行政区划：SUM
         行业：SUM
 6.点击“保存”按钮提交。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>重新进入指标d000000030的配置页面，页面上显示的内容应与修改后的指标属性相符。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">指标维护-查看衍生指标详情
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -363,7 +469,7 @@
          行业，SUM
 6.点击页面右下方【保存】按钮
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -381,15 +487,15 @@
          行业，SUM
 6.点击页面右下方【保存】按钮
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-010</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>重新进入指标b000000030的配置页面，页面上显示的内容应与修改后的指标属性相符。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -411,20 +517,20 @@
         行政区划：SUM
         行业：SUM
 6. 点击保存按钮提交</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-011</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标代码唯一性检查</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">指标维护-新增基础指标
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -435,19 +541,15 @@
    指标代码：b000000030
    其他输入项无要求。
 6.点击页面右下方【保存】按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>提交失败，页面提示：指标代码重复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标维护--编辑基础指标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标属性数据格式检查</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,6 +565,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -485,6 +588,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -507,6 +611,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,6 +634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,6 +657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,20 +679,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 6.点击页面右下方【保存】按钮</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">页面提示：指标代码长度在2和10个字符之间。
 页面提示：指标维度需要设置上卷方式。
 页面提示：指标计算公式不得为空
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -602,7 +710,7 @@
       </rPr>
       <t>12</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -628,13 +736,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 6.点击页面右下方【保存】按钮</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -651,7 +760,7 @@
       </rPr>
       <t>13</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>页面提示：
@@ -661,15 +770,15 @@
 指标数据源不得为空
 数据查询语句不得为空
 指标维度不得为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必填数据项检查</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>提交成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -692,13 +801,14 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -717,7 +827,7 @@
       <t>2、执行2-22-005
 3、执行2-22-007</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -727,7 +837,7 @@
 4、点击表格上方删除按钮，将该数据从库中删除
 5、点击“查询”按钮刷新指标列表
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -744,15 +854,15 @@
       </rPr>
       <t>000000030”的记录</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标列表中不包含指标代码为“b000000030”的记录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>删除操作提交成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -762,23 +872,23 @@
 4、点击表格上方删除按钮，将这两条数据从库中删除
 5、点击“查询”按钮刷新指标列表
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标列表中包含指标代码为“b000000030和d000000030”的记录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标列表中不包含指标代码为“b000000030和d000000030”的记录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标维护--删除多个未生效指标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标维护-删除单个未生效指标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -795,7 +905,7 @@
       </rPr>
       <t>14</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -812,7 +922,7 @@
       </rPr>
       <t>15</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -829,22 +939,22 @@
       </rPr>
       <t>016</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试前状态</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1、使用标准测试数据集。
 2、执行2-22-005
 3、执行2-22-017
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -861,7 +971,7 @@
       </rPr>
       <t>-22-006检查数据是否一致</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
@@ -873,12 +983,12 @@
          行政区划，AVG
          行业，SUM
 5.点击保存按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、使用标准测试数据集。
 2、执行2-22-005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -903,17 +1013,18 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 5.点击保存按钮</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>重新在指标列表中选择b000000030指标，点击“设置”按钮，查看数据变化是否与操作结果。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -930,11 +1041,11 @@
       </rPr>
       <t>017</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-22-018</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -957,6 +1068,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -973,7 +1085,7 @@
       </rPr>
       <t>2-22-005</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -997,6 +1109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,7 +1119,7 @@
 6.点击保存按钮
 </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1023,7 +1136,7 @@
       </rPr>
       <t>019</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1045,6 +1158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1066,6 +1180,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1088,6 +1203,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1109,6 +1225,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1130,6 +1247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1270,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,6 +1292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,6 +1314,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1216,6 +1337,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1237,6 +1359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1259,6 +1382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1280,6 +1404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1302,22 +1427,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">点击保存按钮
 </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、使用标准测试数据集
 2、执行2-22-007</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>重新在指标列表中选择d000000030指标，点击“设置”按钮，查看数据变化是否与操作结果。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1334,11 +1460,11 @@
       </rPr>
       <t>020</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>负责人</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宋超群</t>
@@ -1348,23 +1474,23 @@
   </si>
   <si>
     <t>1、使用标准测试数据集</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全部指标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人口基本情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>企业发展情况指标体系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大专学历以上人口数量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人口规模</t>
@@ -1389,31 +1515,31 @@
   </si>
   <si>
     <t>一级指标目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>根指标目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>疫情分析指标体系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>二级指标目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>人口健康情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>疫情情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>健康异常人数</t>
@@ -1435,7 +1561,7 @@
   </si>
   <si>
     <t>指标代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>b000000002</t>
@@ -1496,15 +1622,15 @@
 2、待审批标签页应无数据。
 3、被拒绝标签页应无数据。</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面显示数据与预期结果相符。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公共体系指标目录树的展示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1521,7 +1647,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1538,7 +1664,7 @@
       </rPr>
       <t>-21-002</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用jxop用户登录系统
@@ -1546,17 +1672,17 @@
 3.点击左侧指标目录树上方的已生效
 4.点击左侧指标目录树上方的待审批
 5.点击左侧指标目录树上方的已拒绝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门体系指标目录树的展示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、已生效标签页目录包括公共指标体系及卫健委指标体系内容，子目录所含指标应与公共指标体系及卫健委对应指标目录内容一致。
 2、待审批标签页应无数据。
 3、被拒绝标签页应无数据。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用wjop用户登录系统
@@ -1564,15 +1690,15 @@
 3.点击左侧指标目录树上方的已生效
 4.点击左侧指标目录树上方的待审批
 5.点击左侧指标目录树上方的已拒绝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>本文档记录指标管理系统标准测试用例及对测试数据的说明</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>测试用例目录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>指标维护测试用例</t>
@@ -1582,7 +1708,7 @@
   </si>
   <si>
     <t>测试数据目录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>公共指标体系</t>
@@ -1605,7 +1731,7 @@
       </rPr>
       <t>-21-003</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1616,6 +1742,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1644,23 +1771,23 @@
     指标目录描述：环境指标体系
 6. 点击“确定”按钮保存输入数据。</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>执行测试用例2-21-001，在“待审批”标签页下可以观察到新增的指标目录。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新建公共指标目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-004</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>执行测试用例2-21-002，在“待审批”标签页下可以观察到新增的指标目录。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1671,6 +1798,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1699,19 +1827,19 @@
     指标目录描述：医院考核指标体系
 6. 点击“确定”按钮保存输入数据。</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新建部门指标目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-005</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新建公共指标二级目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1729,7 +1857,7 @@
       </rPr>
       <t>2、执行2-21-003</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用jxop用户登录系统
@@ -1744,11 +1872,11 @@
     目录显示顺序：1
     目录可见范围：公开
 6. 点击“确定”按钮保存输入内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>执行测试用例2-21-002，在“待审批”标签页下可以观察到新增的指标目录出现在“环境指标体系”目录下。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1765,11 +1893,11 @@
       </rPr>
       <t>-21-006</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>已包含指标的目录下不可创建子目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1780,6 +1908,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1803,6 +1932,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1824,6 +1954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1845,6 +1976,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1865,7 +1997,7 @@
   </si>
   <si>
     <t>提示“该目录下已包含指标，不能再创建子目录”。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1882,19 +2014,19 @@
       </rPr>
       <t>-21-007</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">所有操作提交成功
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在待审批标签页显示的目录树</t>
   </si>
   <si>
     <t>创建多级指标目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用jxop用户登录系统
@@ -1964,7 +2096,7 @@
 30.点击弹窗右下角保存按钮
 31.点击左侧指标目录树上方的【待审批】tab
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1981,11 +2113,11 @@
       </rPr>
       <t>-21-008</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据格式检查</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用jxop用户登录系统
@@ -2011,7 +2143,7 @@
     指标目录描述：TEST指标目录描述
 10.点击确定
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">第6步，页面提示：
@@ -2025,7 +2157,7 @@
      指标目录名称：长度在0-60之间
      目录显示顺序：请输入0-999之间的数字
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2042,11 +2174,11 @@
       </rPr>
       <t>-21-009</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增指标目录代码不得与现有指标目录代码重复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用jxop用户登录系统
@@ -2063,17 +2195,17 @@
 6.点击弹窗右下角保存按钮
 7.将指标目录代码修改为：T0112
 8.点击弹窗右下角保存按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第6步，页面提示：指标代码重复，请修改指标代码
 第8步，页面提示：指标代码重复，请修改指标代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、使用标准测试数据集
 2、执行2-21-007</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2090,15 +2222,15 @@
       </rPr>
       <t>-21-010</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>已生效指标目录编辑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标目录维护</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用jxop用户登录系统
@@ -2111,19 +2243,19 @@
 8.修改指标目录描述为：“人口基本情况指标目录，已修改“
 9.点击确认按钮提交
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第6步，页面提示：指标代码不可修改
 第8步，提交成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面显示数据与预期结果相符。
 在指标目录维护页面的“已生效”和“待审批”标签页上，都可以看到被修改的“人口基本情况”目录，
 在“已生效”标签页上，点击“人口基本情况”目录的编辑按钮，显示的是修改前的状态；
 在“待审批”标签页上，点击“人口基本情况”目录的编辑按钮，显示的是修改后的状态。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2140,11 +2272,11 @@
       </rPr>
       <t>-21-011</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>待审批指标目录编辑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2162,7 +2294,7 @@
       </rPr>
       <t>2、执行2-21-007</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2175,6 +2307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2198,6 +2331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2220,32 +2354,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.点击确认按钮提交
 </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面显示数据与预期结果相符。
 在指标目录维护页面的“已生效”和“被拒绝”标签页上，看不到“朝阳区”目录，
 在指标目录维护页面的“待审批”标签页上，可以看到“朝阳区”目录，
 在“待审批”标签页上，点击“朝阳区”目录的编辑按钮，显示的是修改后的状态。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>已生效指标目录移动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-012</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-013</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2258,6 +2393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2281,6 +2417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2304,6 +2441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2326,121 +2464,122 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.点击确认按钮提交
 </t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面显示数据与预期结果相符。
 在指标目录维护页面的“已生效”和“被拒绝”标签页上，看不到“后沙峪”目录，
 在指标目录维护页面的“待审批”标签页上，可以看到“后沙峪”目录，
 在“待审批”标签页上，“后沙峪”目录的上级目录是“朝阳区”。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>待审批指标目录移动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>指标目录审批测试用例</t>
   </si>
   <si>
     <t>2-21-014</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>已生效指标目录删除</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用jxop用户登录系统
 2.点击菜单 指标体系管理--&gt;指标目录维护
 3.点击左侧指标目录树上方的已生效TAB页
 4.点击左侧指标目录树中【人口基本情况】后面的删除按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在指标目录维护页面的“已生效”标签页上，“人口基本情况”目录未发生变化。
 在指标目录维护页面的“待审批”标签页上，可以看到“人口基本情况”目录。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-015</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>待审批指标目录删除</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用jxop用户登录系统
 2.点击菜单 指标体系管理--&gt;指标目录维护
 3.点击左侧指标目录树上方的待审批TAB页
 4.点击左侧指标目录树中【朝阳区】后面的删除按钮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>在指标目录维护页面的“已生效”标签页的目录未发生变化。
 在指标目录维护页面的“待审批”标签页上，“朝阳区”及下级目录被删除。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-016</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公共指标目录与指标关联关系展示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用jxop用户登录系统
 2.点击菜单 指标体系管理--&gt;指标目录维护
 3.点击左侧指标目录树上方的已生效
 4.点击树中节点，展示所选节点与指标的关联情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击各指标目录节点，显示的指标列表与公共指标体系内容一致。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>页面正常刷新</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.使用wjop用户登录系统
 2.点击菜单 指标体系管理--&gt;指标目录维护
 3.点击左侧指标目录树上方的已生效
 4.点击树中节点，展示所选节点与指标的关联情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>点击各指标目录节点，显示的指标列表与卫健委指标体系内容一致。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-017</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部门指标目录与指标关联关系展示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2-21-018</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公共指标目录与指标关联关系撤销</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公共指标目录与指标关联关系建立</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1、在“已生效”标签页下，指标目录及各目录下所含的指标列表无变化。
@@ -2449,12 +2588,12 @@
     ”企业净利润“， "建立关联“
     "人口规模",  "撤销关联"
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、使用标准测试数据集
 2、执行2-21-017</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用jxop用户登录系统
@@ -2464,7 +2603,7 @@
 5.在列表中选中”人口规模“，点击右侧页面右上角的删除按钮
 6.在确认删除对话框中点击“确认”
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.使用jxop用户登录系统
@@ -2475,20 +2614,1008 @@
 6.在弹出指标列表窗口中选择：【小微企业数量】、【企业净利润】
 7.点击弹窗右下角的确认按钮
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1、在“已生效”标签页下，指标目录及各目录下所含的指标列表无变化。
 2、在“待审批”标签页下，出现“人口基本情况”指标目录，点击该目录，右侧出现指标列表，内容为”小微企业数量“和”企业净利润“，并被标记为”新增关联“。
 3、指标列表窗口中所列出的指标不得与已经和该目录建立关联的指标有重复。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋超群</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标体系浏览</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxuser1用户登录系统。
+2. 在首页上点击“指标浏览”标签页（“指标浏览”标签页在刚打开首页时会自动显示）。
+3. 首页左侧显示的是对当前用户可见的指标目录，包括公共指标体系。
+4. 用户点击指标目录树中的各指标目录条目，页面右侧显示隶属于该目录下的指标。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录树和各目录所隶属的指标与公共指标体系内容相符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0-001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0-002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据指定条件进行指标体系浏览</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxuser1用户登录系统。
+2. 在首页上点击“指标浏览”标签页（“指标浏览”标签页在刚打开首页时会自动显示）。
+3. 首页左侧显示的是对当前用户可见的指标目录，包括公共指标体系。
+4. 在目录树上方搜索框中输入“企业”，并回车。
+5. 点击“企业发展情况指标体系”。
+6. 在右侧指标列表上方筛选栏位，指定指标名称为“占比“，指定指标类型为“衍生指标”，点击筛选按钮。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 目录树只显示和“企业”相匹配的目录及上级目录。
+6. 指标列表中只显示“中小企业数量占比“指标。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxuser1用户登录系统。
+2. 在首页上点击“指标浏览”标签页（“指标浏览”标签页在刚打开首页时会自动显示）。
+3. 首页左侧显示的是对当前用户可见的指标目录，包括公共指标体系。
+4. 点击“企业发展情况指标体系”。
+5. 在右侧指标列表中，点击“小微企业数量“和”中小企业数量“右侧的”收藏“按钮。
+6. 点击“我的指标“页签。页面显示已收藏的指标。
+7. 点击“小微企业数量“指标右侧的”查看“按钮。
+8. 点击”中小企业数量“指标右侧的“取消收藏”按钮。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.“小微企业数量”和“中小企业数量”右侧的“收藏”按钮变为“取消收藏”。
+6. 指标列表中只包含“小微企业数量”和“中小企业数量”两个指标。
+7. 弹出窗口显示“小微企业数量”指标详细属性，所有属性均无法修改。
+8. “中小企业数量”指标从“我的指标”列表中消失。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-0-003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标收藏
+收藏指标查看
+取消收藏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11-001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标数据查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单条件查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxuser1用户登录系统。
+2. 在菜单中选择“指标查询分析--&gt;指标数据查询”。
+3. 在页面左侧指标目录中选择“大专学历以上人口数量“。
+4. 在页面右侧选择“简单查询”标签页。
+5. 在维度字段列表中，
+a) 在“显示”栏目勾选“月份“和”年份“。
+b) 在“显示顺序”栏目设置“年份”显示顺序为1，设置”月份“显示顺序为2。
+c) 在“排序优先级”栏目设置“年份”优先级为1，设置“月份”优先级为2。
+d) 在“过滤条件”栏目设置“年份”过滤条件为：&gt; 2010。
+6. 点击“查询”按钮执行指标数据查询。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据与预期结果相符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-11-00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标注测试数据集
+2、执行用例1-11-001后不退出查询界面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 在维度字段列表中，
+a) 在“显示”栏目勾选“月份“和”年份“。
+b) 在“显示顺序”栏目设置“年份”显示顺序为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，设置”月份“显示顺序为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+c) 在“排序优先级”栏目设置“年份”优先级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，设置“月份”优先级为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+d) 在“过滤条件”栏目设置“年份”过滤条件为：&gt; 2010。
+6. 点击“查询”按钮执行指标数据查询。
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 1 55
+2020 1 54
+2020 6 54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、使用标注测试数据集
+2、执行2020-06-20日全部指标加载
+3、执行2020-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日全部指标加载
+4、执行20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-01-01日全部指标加载</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2020 54
+1 2020 54
+6 2020 54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-11-003</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101001 1 1 49
+110101001 1 2 49
+110101002 1 1 12
+110101002 1 2 12
+110101003 1 1 10
+110101003 1 2 10
+110101004 1 1 27
+110101004 1 2 27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 使用jxuser1用户登录系统。
+2. 在菜单中选择“指标查询分析--&gt;指标数据查询”。
+3. 在页面左侧指标目录中选择“人口规模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“。
+4. 在页面右侧选择“简单查询”标签页。
+5. 在维度字段列表中，
+a) 在“显示”栏目勾选“月份“，“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>季度”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乡镇/街道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“。
+b) 在“显示顺序”栏目设置“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乡镇/街道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”显示顺序为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，设置”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>季度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“显示顺序为2，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置“月份”显示顺序为3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+c) 在“排序优先级”栏目设置“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乡镇/街道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”优先级为1，设置“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>季度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”优先级为2，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置“月份”优先级为3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+d) 在“过滤条件”栏目设置“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>季度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”过滤条件为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+6. 点击“查询”按钮执行指标数据查询。
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-11-004</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101001 1 49
+110101001 2 49
+110101002 1 12
+110101002 2 12
+110101003 1 10
+110101003 2 10
+110101004 1 27
+110101004 2 27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxuser1用户登录系统。
+2. 在菜单中选择“指标查询分析--&gt;指标数据查询”。
+3. 在页面左侧指标目录中选择“人口规模“。
+4. 在页面右侧选择“简单查询”标签页。
+5. 在维度字段列表中，
+a) 在“显示”栏目勾选“月份“，”乡镇/街道“。
+b) 在“显示顺序”栏目设置“乡镇/街道”显示顺序为1，设置“月份”显示顺序为2。
+c) 在“排序优先级”栏目设置“乡镇/街道”优先级为1，设置“月份”优先级为2。
+d) 在“过滤条件”栏目设置“季度”过滤条件为：&lt; 2。
+6. 点击“查询”按钮执行指标数据查询。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-11-005</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxuser1用户登录系统。
+2. 在菜单中选择“指标查询分析--&gt;指标数据查询”。
+3. 在页面左侧指标目录中选择“人口规模“。
+4. 在页面右侧选择“简单查询”标签页。
+5. 在维度字段列表中，
+a) 在“显示”栏目勾选“月份“，”乡镇/街道“。
+b) 在“显示顺序”栏目设置“乡镇/街道”显示顺序为1，设置“月份”显示顺序为2。
+c) 在“排序优先级”栏目设置“乡镇/街道”优先级为1，设置“月份”优先级为2。
+d) 在“过滤条件”栏目设置“季度”过滤条件为：&lt; 2。
+6. 点击“查询”按钮执行指标数据查询
+7. 点击“保存”按钮，输入“人口规模-简单查询-1”。
+8. 点击“新增”按钮。
+9. 在“常用查询”中选择“人口规模-简单查询-1”，点击“查询”按钮。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6：
+110101001 1 49
+110101001 2 49
+110101002 1 12
+110101002 2 12
+110101003 1 10
+110101003 2 10
+110101004 1 27
+110101004 2 27
+9：界面显示的查询条件与步骤5中设置的条件相同，查询结果与步骤6返回的结果相同。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11-006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂条件查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxuser1用户登录系统。
+2. 在菜单中选择“指标查询分析--&gt;指标数据查询”。
+3. 在页面左侧指标目录中选择“人口规模“。
+4. 在页面右侧选择“简单查询”标签页。
+5. 在维度字段列表中，
+a) 在“显示”栏目勾选“月份“，”乡镇/街道“。
+b) 在“显示顺序”栏目设置“乡镇/街道”显示顺序为1，设置“月份”显示顺序为2。
+c) 在“排序优先级”栏目设置“乡镇/街道”优先级为1，设置“月份”优先级为2。
+d) 在综合查询条件输入框中输入：d_quarter &lt; 2 and d_town like '%001%'。
+6. 点击“查询”按钮执行指标数据查询
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101001 1 49
+110101001 2 49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11-007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxuser1用户登录系统。
+2. 在菜单中选择“指标查询分析--&gt;指标数据查询”。
+3. 在页面左侧指标目录中选择“人口规模“。
+4. 在页面右侧选择“简单查询”标签页。
+5. 在维度字段列表中，
+a) 在“显示”栏目勾选“月份“，”乡镇/街道“。
+b) 在“显示顺序”栏目设置“乡镇/街道”显示顺序为1，设置“月份”显示顺序为2。
+c) 在“排序优先级”栏目设置“乡镇/街道”优先级为1，设置“月份”优先级为2。
+d) 在综合查询条件输入框中输入：d_quarter &lt; 2 and d_town like '%001%'。
+6. 点击“查询”按钮执行指标数据查询。
+7. 点击“保存”，输入“人口规模-复杂查询-1”作为查询名称。
+8. 点击“新增”，从常用查询下拉框中选择“人口规模-复杂查询-1”。
+9. 点击“查询”
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6：
+110101001 1 49
+110101001 2 49
+8：页面显示的查询条件与步骤5中输入的条件相同。
+9：查询结果与步骤6返回的结果相同。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标数据查询分析</t>
+  </si>
+  <si>
+    <t>系统首页</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-24-001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋超群</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标审批</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、使用标准测试数据集。
+2、执行用例2-22-005
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增指标审批通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、审批页面提交成功。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指标列表中可以看到该指标变为“已生效”状态，且指标各项属性均与待审批时相同。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增指标审批拒绝</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-24-002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指标列表中可以看到该指标变为“被拒绝”状态，且指标各项属性均与待审批时相同。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-24-003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-24-004</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已生效指标修改审批通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已生效指标修改审批拒绝</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标维护--编辑未生效基础指标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未生效基础指标维度设置--删除维度
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未生效基础指标维度设置--增加维度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标维护-编辑未生效衍生指标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑已生效指标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jxop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标维护”。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 浏览指标列表，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指标"人口规模“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">右侧的“配置”修改指标配置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 修改指标下列属性：
+          指标单位：个
+          指标计算周期：每月更新
+          指标描述：人口规模指标
+5. 点击“保存”保存配置信息并提交审核。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标“人口规模”出现在在待审批指标列表中，且指标配置信息与编辑后的内容相符。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 指标代码和指标维度编辑被禁用。
+5. 提交成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、使用标准测试数据集。
+2、执行用例2-22-020
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxsup用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标审核”。
+3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
+4. 在列表中点击需要审批的指标条目右侧的“查看”按钮。
+5. 检查指标配置各项属性，点击“通过”。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxsup用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标审核”。
+3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
+4. 在列表中点击需要审批的指标条目右侧的“查看”按钮。
+5. 检查指标各项属性，点击“拒绝”。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxsup用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标审核”。
+3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
+4. 在列表中点击“人口规模“指标条目右侧的“查看”按钮。
+5. 检查指标配置各项属性，点击“通过”。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxsup用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标审核”。
+3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
+4. 在列表中点击”人口规模“指标条目右侧的“查看”按钮。
+5. 检查指标各项属性，点击“拒绝”。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2524,17 +3651,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2588,8 +3704,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF606266"/>
+      <name val="-apple-system,Noto Sans,Helveti"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2620,8 +3755,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2681,6 +3828,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFEBEEF5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEEF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2690,7 +3848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2700,10 +3858,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2739,31 +3897,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2778,13 +3936,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2796,13 +3954,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
@@ -2811,7 +3969,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3096,65 +4272,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC9320C-2F67-4738-893D-712808034542}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="38"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>162</v>
-      </c>
+    <row r="31" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+    </row>
+    <row r="32" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+    </row>
+    <row r="35" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+    </row>
+    <row r="36" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+    </row>
+    <row r="37" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+    </row>
+    <row r="38" spans="8:11" ht="14.5" thickBot="1">
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" location="指标维护测试用例!A1" display="指标维护测试用例" xr:uid="{6D1DEDDA-ECCC-47D8-AD76-653C3A4DF7E4}"/>
     <hyperlink ref="A5" location="指标目录维护测试用例!A1" display="指标目录维护测试用例" xr:uid="{433FB8BF-83D2-475C-8B64-FD9DC920061A}"/>
-    <hyperlink ref="A10" location="公共指标体系!A1" display="公共指标体系" xr:uid="{431FBE25-46E9-4C74-80C6-41F20C1C18EA}"/>
-    <hyperlink ref="A11" location="卫健委指标体系!A1" display="卫健委指标体系" xr:uid="{9002D93F-6CCD-4215-BEBD-705FDCFBC41A}"/>
+    <hyperlink ref="A13" location="公共指标体系!A1" display="公共指标体系" xr:uid="{431FBE25-46E9-4C74-80C6-41F20C1C18EA}"/>
+    <hyperlink ref="A14" location="卫健委指标体系!A1" display="卫健委指标体系" xr:uid="{9002D93F-6CCD-4215-BEBD-705FDCFBC41A}"/>
     <hyperlink ref="A6" location="指标目录审批测试用例!A1" display="指标目录审批测试用例" xr:uid="{C6B5557E-78AC-4CDF-BB71-9287A0D8719B}"/>
+    <hyperlink ref="A7" location="指标数据查询分析!A1" display="指标数据查询分析" xr:uid="{A723308D-8E70-4169-A6AE-AF4E1FC6D002}"/>
+    <hyperlink ref="A8" location="系统首页!A1" display="系统首页" xr:uid="{97112697-E4AF-4B98-96A9-4101CFCB51C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC77FF-A376-4934-BD20-E9C7927F74A0}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.4140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="32" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5">
+      <c r="A1" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3163,11 +4527,11 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="5" customWidth="1"/>
@@ -3181,12 +4545,12 @@
     <col min="10" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="23" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
@@ -3201,56 +4565,56 @@
         <v>4</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="25" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:9" s="25" customFormat="1" ht="58" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>22</v>
+      <c r="D2" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="25" customFormat="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="H3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" ht="84" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="84">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -3259,25 +4623,25 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="83.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="83.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -3286,25 +4650,25 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="112" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="112">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -3313,25 +4677,25 @@
         <v>7</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="322" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="322">
       <c r="A7" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>6</v>
@@ -3340,25 +4704,25 @@
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="165" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>6</v>
@@ -3367,23 +4731,23 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="266" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="266">
       <c r="A9" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>6</v>
@@ -3398,19 +4762,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="126">
       <c r="A10" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>6</v>
@@ -3419,23 +4783,23 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="196" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="196">
       <c r="A11" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -3443,25 +4807,25 @@
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
+      <c r="D11" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="224">
+      <c r="A12" s="10" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="224" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>6</v>
@@ -3470,25 +4834,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="112" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="112">
       <c r="A13" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>6</v>
@@ -3497,23 +4861,23 @@
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="154">
+      <c r="A14" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="154" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -3522,22 +4886,22 @@
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="98">
       <c r="A15" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>6</v>
@@ -3546,23 +4910,23 @@
         <v>7</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="98">
       <c r="A16" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>6</v>
@@ -3571,27 +4935,27 @@
         <v>7</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="I16" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="112" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="112">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -3600,132 +4964,132 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="22" t="s">
-        <v>79</v>
-      </c>
       <c r="G17" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I17" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="140">
+      <c r="A18" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="140" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="84">
+      <c r="A19" s="3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="140" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="140">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="168">
+      <c r="A21" s="4" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="168" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="126">
       <c r="A22" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -3733,8 +5097,20 @@
       <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>20</v>
+      <c r="D22" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +5122,7 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -3762,28 +5138,190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848F79E7-CBCF-4956-B865-4160575F9E52}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="19" style="28" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="25.08203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="32.58203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="28" customWidth="1"/>
+    <col min="8" max="8" width="34.4140625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="42.08203125" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.5">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="154">
+      <c r="A2" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="140">
+      <c r="A3" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="154">
+      <c r="A4" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140">
+      <c r="A5" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9A7C46-0EB5-4396-A7C3-F30946E192C4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98782CB1-58B2-4C10-982F-16FF958C84C1}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="28" customWidth="1"/>
@@ -3797,12 +5335,12 @@
     <col min="10" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.5">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -3817,509 +5355,509 @@
         <v>4</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="70">
       <c r="A2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="84">
+      <c r="A3" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="H3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="210">
+      <c r="A4" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="210">
+      <c r="A5" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="182">
+      <c r="A6" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="70">
+      <c r="A7" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.5">
+      <c r="A8" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="378">
+      <c r="A9" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210">
+      <c r="A10" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="182">
+      <c r="A11" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="126">
+      <c r="A12" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="210" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="182" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="378" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="210" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="E12" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="182">
+      <c r="A13" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="D13" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>192</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="182" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="126" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="182" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>197</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="140" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="140">
       <c r="A14" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="70">
+      <c r="A15" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="37" t="s">
+      <c r="B15" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="70">
+      <c r="A16" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="37" t="s">
+      <c r="E16" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="H16" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="28" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="70">
+      <c r="A17" s="28" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="B17" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="E17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="H17" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="28" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="70">
+      <c r="A18" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="I18" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="28" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="126">
+      <c r="A19" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="B19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="112">
+      <c r="A20" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="B20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="126" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="112" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>232</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1" xr:uid="{FADEE23F-DBB5-439E-A73B-1B45677A1A79}"/>
   </hyperlinks>
@@ -4328,7 +5866,406 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02843B-15DE-4629-B690-383BE16AC9E1}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="41" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="29.9140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="41.9140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="36.25" style="41" customWidth="1"/>
+    <col min="9" max="9" width="35.9140625" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.5">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="210">
+      <c r="A2" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="140">
+      <c r="A3" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="182">
+      <c r="A4" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="168">
+      <c r="A5" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="224.5" thickBot="1">
+      <c r="A6" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" ht="196.5" thickBot="1">
+      <c r="A7" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:14" ht="266.5" thickBot="1">
+      <c r="A8" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3D0A4-D2E5-474C-9969-19D1B49B8C1F}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.08203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="47.9140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="20.58203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.5">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="112">
+      <c r="A2" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="140">
+      <c r="A3" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="168">
+      <c r="A4" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0BF3F-25F4-488B-8733-E9BF001B66DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72745ED9-4FB7-44D6-9FC4-D66B36CB31A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4337,7 +6274,7 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.9140625" style="32" customWidth="1"/>
     <col min="2" max="2" width="22.9140625" style="32" customWidth="1"/>
@@ -4346,224 +6283,101 @@
     <col min="5" max="16384" width="8.6640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="31" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="31" customFormat="1" ht="15.5">
       <c r="A1" s="31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="33" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="33"/>
       <c r="C5" s="33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="33"/>
       <c r="C6" s="33" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="33"/>
       <c r="C7" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="33"/>
       <c r="C8" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="33"/>
       <c r="C9" s="33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC77FF-A376-4934-BD20-E9C7927F74A0}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.4140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/test-case/测试用例/测试用例.xlsx
+++ b/test-case/测试用例/测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\metric-sys\test-case\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230230A-38F3-424E-A6DA-F3391D030C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B38DED-A82F-459A-AC38-8AD7CB307F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="5" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="313">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -260,14 +260,7 @@
     <t>基础指标维度设置</t>
   </si>
   <si>
-    <t xml:space="preserve">基础指标维度设置--仅修改已有维度的上卷方式
-</t>
-  </si>
-  <si>
     <t>衍生指标维度设置</t>
-  </si>
-  <si>
-    <t>衍生指标维度设置--仅支持修改已关联维度的上卷方式</t>
   </si>
   <si>
     <t>查询结果</t>
@@ -3578,24 +3571,6 @@
     <t xml:space="preserve">1. 使用jxsup用户登录系统。
 2. 在菜单中选择“指标体系管理--&gt;指标审核”。
 3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
-4. 在列表中点击需要审批的指标条目右侧的“查看”按钮。
-5. 检查指标配置各项属性，点击“通过”。
-</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 使用jxsup用户登录系统。
-2. 在菜单中选择“指标体系管理--&gt;指标审核”。
-3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
-4. 在列表中点击需要审批的指标条目右侧的“查看”按钮。
-5. 检查指标各项属性，点击“拒绝”。
-</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 使用jxsup用户登录系统。
-2. 在菜单中选择“指标体系管理--&gt;指标审核”。
-3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
 4. 在列表中点击“人口规模“指标条目右侧的“查看”按钮。
 5. 检查指标配置各项属性，点击“通过”。
 </t>
@@ -3609,6 +3584,106 @@
 5. 检查指标各项属性，点击“拒绝”。
 </t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未生效基础指标维度设置--仅修改已有维度的上卷方式
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未生效衍生指标维度设置--仅支持修改已关联维度的上卷方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-22-021</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标准测试数据集
+2、执行指标审批用例2-24-002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxsup用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标审核”。
+3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
+4. 在列表中点击指标条目“企业主营收入”右侧的“查看”按钮。
+5. 检查指标各项属性，点击“拒绝”。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用jxsup用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标审核”。
+3. 在指标审核界面上的“审批状态”栏选择“待审批”，点击“查询”按钮。系统显示所有待审批的指标维护请求列表。
+4. 在列表中点击指标条目“企业主营收入”右侧的“查看”按钮。
+5. 检查指标配置各项属性，点击“通过”。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标“企业主营收入”出现在在待审批指标列表中，且指标配置信息与编辑后的内容相符。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxop用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标维护”。
+3. 浏览指标列表，在“指标审批状态”下拉框选择“被拒绝”，点击查询。
+4. 点击指标"企业主营收入“右侧的“配置”修改指标配置。
+5. 修改指标下列属性：
+          指标周期：每月更新
+5. 点击“保存”保存配置信息并提交审核。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审批驳回的已生效指标维护请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审批驳回的新增指标请求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-22-022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标准测试数据集
+2、执行指标审批用例2-24-004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxop用户登录系统。
+2. 在菜单中选择“指标体系管理--&gt;指标维护”。
+3. 浏览指标列表，在“指标审批状态”下拉框选择“被拒绝”，点击查询。
+4. 点击指标"人口规模“右侧的“配置”修改指标配置。
+5. 修改指标下列属性：
+          指标周期：每季度更新
+6. 点击“保存”保存配置信息并提交审核。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 指标代码和指标维度编辑被禁用。
+6. 提交成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标代码和维度均可修改 
+提交成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4285,37 +4360,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4323,17 +4398,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="8:11" ht="14.5" thickBot="1">
@@ -4419,88 +4494,88 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.5">
       <c r="A1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>118</v>
-      </c>
       <c r="D1" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>121</v>
-      </c>
       <c r="E2" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="33"/>
       <c r="C4" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4524,17 +4599,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="36.58203125" style="5" customWidth="1"/>
@@ -4550,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
@@ -4565,10 +4640,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>5</v>
@@ -4576,7 +4651,7 @@
     </row>
     <row r="2" spans="1:9" s="25" customFormat="1" ht="58" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>6</v>
@@ -4585,19 +4660,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1">
@@ -4614,7 +4689,7 @@
     </row>
     <row r="4" spans="1:9" ht="84">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -4623,25 +4698,25 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="83.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -4650,25 +4725,25 @@
         <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="112">
       <c r="A6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -4677,25 +4752,25 @@
         <v>7</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="322">
       <c r="A7" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>6</v>
@@ -4704,25 +4779,25 @@
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="165" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>6</v>
@@ -4731,23 +4806,23 @@
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="266">
       <c r="A9" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>6</v>
@@ -4762,19 +4837,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="126">
       <c r="A10" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>6</v>
@@ -4783,23 +4858,23 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="196">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -4808,24 +4883,24 @@
         <v>7</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="224">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>6</v>
@@ -4834,25 +4909,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="112">
       <c r="A13" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>6</v>
@@ -4861,23 +4936,23 @@
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="154">
       <c r="A14" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>6</v>
@@ -4886,22 +4961,22 @@
         <v>7</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="98">
       <c r="A15" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>6</v>
@@ -4910,23 +4985,23 @@
         <v>7</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="98">
       <c r="A16" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>6</v>
@@ -4935,27 +5010,27 @@
         <v>7</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="112">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -4964,27 +5039,27 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="140">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -4993,25 +5068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="84">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -5020,24 +5095,24 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="140">
       <c r="A20" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -5045,51 +5120,51 @@
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
+      <c r="D20" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="168">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="126">
       <c r="A22" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -5098,19 +5173,71 @@
         <v>7</v>
       </c>
       <c r="D22" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>295</v>
+    </row>
+    <row r="23" spans="1:9" ht="132" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="112">
+      <c r="A24" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5141,8 +5268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848F79E7-CBCF-4956-B865-4160575F9E52}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5164,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -5179,10 +5306,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>5</v>
@@ -5190,112 +5317,113 @@
     </row>
     <row r="2" spans="1:9" ht="154">
       <c r="A2" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="D2" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="F2" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>279</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="140">
       <c r="A3" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="F3" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>282</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="154">
       <c r="A4" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>287</v>
-      </c>
       <c r="E4" s="45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="140">
       <c r="A5" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>288</v>
-      </c>
       <c r="E5" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>301</v>
-      </c>
       <c r="H5" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5340,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -5355,10 +5483,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>5</v>
@@ -5366,494 +5494,494 @@
     </row>
     <row r="2" spans="1:9" ht="70">
       <c r="A2" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>147</v>
-      </c>
       <c r="H2" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="84">
       <c r="A3" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>150</v>
-      </c>
       <c r="H3" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="210">
       <c r="A4" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="37" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="210">
       <c r="A5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>164</v>
-      </c>
       <c r="H5" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="182">
       <c r="A6" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="37" t="s">
+      <c r="F6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="H6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>168</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="70">
       <c r="A7" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="37" t="s">
+      <c r="H7" s="37" t="s">
         <v>172</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>175</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="378">
       <c r="A9" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="H9" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>183</v>
-      </c>
       <c r="I9" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="210">
       <c r="A10" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="37" t="s">
+      <c r="H10" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>187</v>
-      </c>
       <c r="I10" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="182">
       <c r="A11" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="37" t="s">
+      <c r="I11" s="37" t="s">
         <v>192</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="126">
       <c r="A12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="F12" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="H12" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="37" t="s">
         <v>197</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="182">
       <c r="A13" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="140">
       <c r="A14" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="37" t="s">
         <v>202</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="70">
       <c r="A15" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="37" t="s">
+      <c r="H15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>208</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
       <c r="A16" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="H16" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="70">
       <c r="A17" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="H17" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="70">
       <c r="A18" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="F18" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H18" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="126">
       <c r="A19" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>102</v>
-      </c>
       <c r="F19" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="112">
       <c r="A20" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5893,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -5908,10 +6036,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>5</v>
@@ -5919,132 +6047,132 @@
     </row>
     <row r="2" spans="1:14" ht="210">
       <c r="A2" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="E2" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="H2" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="43" t="s">
         <v>248</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="140">
       <c r="A3" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="H3" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>248</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="182">
       <c r="A4" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="H4" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>248</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="168">
       <c r="A5" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="H5" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>248</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="224.5" thickBot="1">
       <c r="A6" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="I6" s="43" t="s">
         <v>248</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>250</v>
       </c>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
@@ -6052,28 +6180,28 @@
     </row>
     <row r="7" spans="1:14" ht="196.5" thickBot="1">
       <c r="A7" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="43" t="s">
+      <c r="H7" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>269</v>
-      </c>
       <c r="I7" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
@@ -6081,28 +6209,28 @@
     </row>
     <row r="8" spans="1:14" ht="266.5" thickBot="1">
       <c r="A8" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="I8" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -6143,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -6158,10 +6286,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>5</v>
@@ -6169,80 +6297,80 @@
     </row>
     <row r="2" spans="1:9" ht="112">
       <c r="A2" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>235</v>
-      </c>
       <c r="I2" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="140">
       <c r="A3" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="H3" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>240</v>
-      </c>
       <c r="I3" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="168">
       <c r="A4" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>243</v>
-      </c>
       <c r="I4" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6256,7 +6384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0BF3F-25F4-488B-8733-E9BF001B66DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
@@ -6285,95 +6413,95 @@
   <sheetData>
     <row r="1" spans="1:4" s="31" customFormat="1" ht="15.5">
       <c r="A1" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>106</v>
-      </c>
       <c r="D2" s="34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="33"/>
       <c r="C5" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="33"/>
       <c r="C6" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="33"/>
       <c r="C7" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="33"/>
       <c r="C8" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="33"/>
       <c r="C9" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/test-case/测试用例/测试用例.xlsx
+++ b/test-case/测试用例/测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\metric-sys\test-case\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19B984-DE8D-4202-A1FB-B1C24E226BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542128C2-E9CF-4338-9F53-EA1C7D05D7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="599" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="599" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="5" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="指标数据查询分析" sheetId="8" r:id="rId6"/>
     <sheet name="系统首页" sheetId="7" r:id="rId7"/>
     <sheet name="系统管理" sheetId="10" r:id="rId8"/>
-    <sheet name="公共指标体系" sheetId="3" r:id="rId9"/>
-    <sheet name="卫健委指标体系" sheetId="4" r:id="rId10"/>
-    <sheet name="用户列表" sheetId="11" r:id="rId11"/>
-    <sheet name="机构信息表" sheetId="12" r:id="rId12"/>
+    <sheet name="指标接口维护" sheetId="13" r:id="rId9"/>
+    <sheet name="指标接口审批" sheetId="14" r:id="rId10"/>
+    <sheet name="公共指标体系" sheetId="3" r:id="rId11"/>
+    <sheet name="卫健委指标体系" sheetId="4" r:id="rId12"/>
+    <sheet name="用户列表" sheetId="11" r:id="rId13"/>
+    <sheet name="机构信息表" sheetId="12" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">机构信息表!$A$1:$D$2789</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">机构信息表!$A$1:$D$2789</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -292,8 +294,82 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yu Xiao</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{98AB9BD4-39D3-42F4-B35F-F68D6FB8678E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yu Xiao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以通过执行脚本校验或通过比对截图校验。
+如果使用脚本校验，需提供校验用脚本，以及脚本调用说明。
+如果通过截图对比校验，需要提供测试前及预期结果截图。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yu Xiao</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{925BB352-B223-4517-B990-77CA8CE0F140}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yu Xiao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以通过执行脚本校验或通过比对截图校验。
+如果使用脚本校验，需提供校验用脚本，以及脚本调用说明。
+如果通过截图对比校验，需要提供测试前及预期结果截图。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11976" uniqueCount="5673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12018" uniqueCount="5689">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -21163,6 +21239,107 @@
     <t>在“已生效”标签页的指标目录列表中点击“人口基本情况”目录，该目录下的指标列表无变化。
 在“被拒绝”标签页的指标目录列表中点击“人口基本情况”目录，页面右侧列出被审批驳回的被移除指标。</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-31-001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标接口维护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各项操作均提交成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“待审批”标签页打开新增的指标接口，各项属性与输入数据相符，该接口所含的各指标的筛选条件与设置的条件相符。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-31-002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改待审批指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标准测试数据集
+2、执行用例3-31-001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
+2.点击菜单 指标接口管理--&gt;指标接口维护
+3.点击页面左侧指标接口列表右侧的“新增”按钮，系统弹出指标接口配置窗口
+4.输入以下内容
+   接口代码：0002
+   接口名称：测试接口2
+   接口失效时间：2020-12-31
+   访问数据量阈值：99999
+   访问频次阈值： 100
+   申请备注：测试接口2
+5.点击窗口下方【确定】按钮
+6.点击页面左侧“待审批”标签
+7.点击“测试接口2”
+8.点击页面右侧“新增”按钮，系统显示指标列表。
+9.在指标列表中勾选”大专学历以上人口数量“，”累计新冠患者数量“，”就业人数“，点击“确定”。这三个指标被加入指标接口。
+10.点击“大专学历以上人口数量”指标右侧的“筛选条件“
+11.在“设置筛选条件”窗口中，点击“复杂查询”，在下方的查询条件输入框中，输入“d_date between '2020-01-01' and '2020-04-30'”，点击“保存”
+12.点击“就业人数”指标右侧的“筛选条件“
+13.在“设置筛选条件”窗口中，点击“简单查询”，在“村/社区”右侧的过滤条件输入框中，输入“='110101001001'”，点击“保存”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
+2.点击菜单 指标接口管理--&gt;指标接口维护
+3.点击页面左侧“待审批”标签页，点击“测试接口2”右侧的编辑按钮，系统弹出指标接口配置窗口
+4.输入以下内容
+   申请备注：测试接口2备注
+5.点击窗口下方【确定】按钮
+6.点击页面左侧“待审批”标签，点击“测试接口2”
+7.在指标列表中勾选”累计新冠患者数量“，点击“删除”，该指标被从指标接口中删除。
+8.点击“大专学历以上人口数量”指标右侧的“筛选条件“
+9.在“设置筛选条件”窗口中，点击“复杂查询”，在下方的查询条件输入框中，输入“d_date between '2020-02-01' and '2020-04-30'”，点击“保存”
+10.点击“就业人数”指标右侧的“筛选条件“
+11.在“设置筛选条件”窗口中，点击“简单查询”，在“日期”右侧的过滤条件输入框中，输入“&lt; '2020-02-01'”，点击“保存”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“待审批”标签页打开修改过的指标接口，各项属性与修改或的数据相符，该接口所含的各指标的筛选条件与修改过的条件相符。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-32-001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标准测试数据集
+2、执行测试用例3-31-002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.使用admin用户或拥有【指标维护】权限的用户登录系统
+2.点击菜单 指标接口管理--&gt;指标接口审批
+3.点击页面左侧“待审批”标签页
+4.点击“测试指标接口2”右侧的审批按钮
+5.填写审批意见：同意
+6.点击“提交”按钮
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“已生效”标签页中可以看到审批通过的指标接口，且指标接口所含指标与审批操作前相比没有变化。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过新增指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -21591,12 +21768,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -21608,6 +21779,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -22027,6 +22204,206 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB32C-4CD7-4DCC-A4B3-437C5134071D}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.9140625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="98">
+      <c r="A2" s="52" t="s">
+        <v>5684</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>5685</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>5686</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>5687</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72745ED9-4FB7-44D6-9FC4-D66B36CB31A4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.9140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.9140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="31" customFormat="1" ht="15.5">
+      <c r="A1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC77FF-A376-4934-BD20-E9C7927F74A0}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -22149,7 +22526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628B8782-FF88-4718-8231-E340CD03B1BF}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -22447,7 +22824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41209079-642E-4F6B-82D8-AFD965546F83}">
   <dimension ref="A1:D2789"/>
   <sheetViews>
@@ -61522,8 +61899,8 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -61570,22 +61947,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="25" customFormat="1" ht="58" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="58" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="26" t="s">
@@ -61596,12 +61973,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="25" customFormat="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>10</v>
       </c>
@@ -62430,8 +62807,8 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -62529,7 +62906,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="210">
+    <row r="4" spans="1:9" ht="182">
       <c r="A4" s="37" t="s">
         <v>156</v>
       </c>
@@ -62555,7 +62932,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="210">
+    <row r="5" spans="1:9" ht="182">
       <c r="A5" s="37" t="s">
         <v>160</v>
       </c>
@@ -62581,7 +62958,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="182">
+    <row r="6" spans="1:9" ht="168">
       <c r="A6" s="37" t="s">
         <v>164</v>
       </c>
@@ -62607,7 +62984,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="70">
+    <row r="7" spans="1:9" ht="56">
       <c r="A7" s="37" t="s">
         <v>169</v>
       </c>
@@ -62656,7 +63033,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="378">
+    <row r="9" spans="1:9" ht="336">
       <c r="A9" s="37" t="s">
         <v>178</v>
       </c>
@@ -62682,7 +63059,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="210">
+    <row r="10" spans="1:9" ht="196">
       <c r="A10" s="37" t="s">
         <v>182</v>
       </c>
@@ -62708,7 +63085,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="182">
+    <row r="11" spans="1:9" ht="140">
       <c r="A11" s="37" t="s">
         <v>187</v>
       </c>
@@ -62734,7 +63111,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="126">
+    <row r="12" spans="1:9" ht="98">
       <c r="A12" s="37" t="s">
         <v>193</v>
       </c>
@@ -62760,7 +63137,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="182">
+    <row r="13" spans="1:9" ht="140">
       <c r="A13" s="40" t="s">
         <v>199</v>
       </c>
@@ -62787,7 +63164,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="140">
+    <row r="14" spans="1:9" ht="126">
       <c r="A14" s="37" t="s">
         <v>200</v>
       </c>
@@ -62813,7 +63190,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="70">
+    <row r="15" spans="1:9" ht="56">
       <c r="A15" s="28" t="s">
         <v>205</v>
       </c>
@@ -62839,7 +63216,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="70">
+    <row r="16" spans="1:9" ht="56">
       <c r="A16" s="28" t="s">
         <v>209</v>
       </c>
@@ -62865,7 +63242,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="70">
+    <row r="17" spans="1:9" ht="56">
       <c r="A17" s="28" t="s">
         <v>213</v>
       </c>
@@ -62891,7 +63268,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="70">
+    <row r="18" spans="1:9" ht="56">
       <c r="A18" s="28" t="s">
         <v>220</v>
       </c>
@@ -62983,22 +63360,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9A7C46-0EB5-4396-A7C3-F30946E192C4}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="58" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="58" customWidth="1"/>
-    <col min="4" max="4" width="21.08203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="58.58203125" style="58" customWidth="1"/>
-    <col min="7" max="7" width="20.9140625" style="58" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="30.4140625" style="58" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="58"/>
+    <col min="1" max="1" width="14.75" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13.4140625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="56" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="58.58203125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="20.9140625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="30.4140625" style="56" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5">
@@ -63014,7 +63391,7 @@
       <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
@@ -63030,7 +63407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="112">
+    <row r="2" spans="1:9" ht="98">
       <c r="A2" s="47" t="s">
         <v>5624</v>
       </c>
@@ -63043,7 +63420,7 @@
       <c r="D2" s="47" t="s">
         <v>5634</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="55" t="s">
         <v>5626</v>
       </c>
       <c r="F2" s="47" t="s">
@@ -63070,7 +63447,7 @@
       <c r="D3" s="47" t="s">
         <v>5635</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="55" t="s">
         <v>5626</v>
       </c>
       <c r="F3" s="47" t="s">
@@ -63085,7 +63462,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="182">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>5632</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -63097,7 +63474,7 @@
       <c r="D4" s="47" t="s">
         <v>5633</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>5636</v>
       </c>
       <c r="F4" s="47" t="s">
@@ -63123,7 +63500,7 @@
       <c r="D5" s="47" t="s">
         <v>5640</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>5641</v>
       </c>
       <c r="F5" s="47" t="s">
@@ -63150,7 +63527,7 @@
       <c r="D6" s="47" t="s">
         <v>5645</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="55" t="s">
         <v>5641</v>
       </c>
       <c r="F6" s="47" t="s">
@@ -63177,7 +63554,7 @@
       <c r="D7" s="47" t="s">
         <v>5648</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>5649</v>
       </c>
       <c r="F7" s="47" t="s">
@@ -63204,7 +63581,7 @@
       <c r="D8" s="47" t="s">
         <v>5653</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="55" t="s">
         <v>5649</v>
       </c>
       <c r="F8" s="47" t="s">
@@ -63231,7 +63608,7 @@
       <c r="D9" s="47" t="s">
         <v>5655</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="55" t="s">
         <v>5659</v>
       </c>
       <c r="F9" s="47" t="s">
@@ -63258,7 +63635,7 @@
       <c r="D10" s="47" t="s">
         <v>5663</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="55" t="s">
         <v>5659</v>
       </c>
       <c r="F10" s="47" t="s">
@@ -63285,7 +63662,7 @@
       <c r="D11" s="47" t="s">
         <v>5668</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="55" t="s">
         <v>5669</v>
       </c>
       <c r="F11" s="47" t="s">
@@ -63312,7 +63689,7 @@
       <c r="D12" s="47" t="s">
         <v>5663</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>5669</v>
       </c>
       <c r="F12" s="47" t="s">
@@ -63337,8 +63714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02843B-15DE-4629-B690-383BE16AC9E1}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -63724,7 +64101,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -64012,119 +64389,111 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72745ED9-4FB7-44D6-9FC4-D66B36CB31A4}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B75E71-A0AB-47EA-858C-994CF10C7BDF}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.9140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="22.9140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="32"/>
+    <col min="1" max="1" width="14.75" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="52" customWidth="1"/>
+    <col min="4" max="4" width="23.58203125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="52" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="52" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="31" customFormat="1" ht="15.5">
-      <c r="A1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>139</v>
+    <row r="1" spans="1:9" ht="15.5">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="350">
+      <c r="A2" s="52" t="s">
+        <v>5673</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>5675</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>5681</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="238">
+      <c r="A3" s="52" t="s">
+        <v>5678</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>5679</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>5680</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>5682</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>5683</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test-case/测试用例/测试用例.xlsx
+++ b/test-case/测试用例/测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\metric-sys\test-case\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542128C2-E9CF-4338-9F53-EA1C7D05D7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009AE04-6D4F-40AD-9C60-25455C61D4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="599" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="599" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="5" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="指标目录审批" sheetId="6" r:id="rId5"/>
     <sheet name="指标数据查询分析" sheetId="8" r:id="rId6"/>
     <sheet name="系统首页" sheetId="7" r:id="rId7"/>
-    <sheet name="系统管理" sheetId="10" r:id="rId8"/>
-    <sheet name="指标接口维护" sheetId="13" r:id="rId9"/>
-    <sheet name="指标接口审批" sheetId="14" r:id="rId10"/>
+    <sheet name="指标接口维护" sheetId="13" r:id="rId8"/>
+    <sheet name="指标接口审批" sheetId="14" r:id="rId9"/>
+    <sheet name="系统管理" sheetId="10" r:id="rId10"/>
     <sheet name="公共指标体系" sheetId="3" r:id="rId11"/>
     <sheet name="卫健委指标体系" sheetId="4" r:id="rId12"/>
     <sheet name="用户列表" sheetId="11" r:id="rId13"/>
@@ -263,7 +263,7 @@
     <author>Yu Xiao</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5EA5B038-BE67-4C2F-9106-E6664A53D4A8}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{98AB9BD4-39D3-42F4-B35F-F68D6FB8678E}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
     <author>Yu Xiao</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{98AB9BD4-39D3-42F4-B35F-F68D6FB8678E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{925BB352-B223-4517-B990-77CA8CE0F140}">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
     <author>Yu Xiao</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{925BB352-B223-4517-B990-77CA8CE0F140}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5EA5B038-BE67-4C2F-9106-E6664A53D4A8}">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12018" uniqueCount="5689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12042" uniqueCount="5701">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -21311,10 +21311,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>在“待审批”标签页打开修改过的指标接口，各项属性与修改或的数据相符，该接口所含的各指标的筛选条件与修改过的条件相符。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3-32-001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -21339,6 +21335,118 @@
   </si>
   <si>
     <t>审批通过新增指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-32-00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批驳回新增指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.使用admin用户或拥有【指标维护】权限的用户登录系统
+2.点击菜单 指标接口管理--&gt;指标接口审批
+3.点击页面左侧“待审批”标签页
+4.点击“测试指标接口2”右侧的审批按钮
+5.填写审批意见：不同意
+6.点击“拒绝”按钮
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“被拒绝”标签页中可以看到被审批驳回的指标接口。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、使用标准测试数据集
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、执行用例3-32-001</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“待审批”标签页打开修改过的指标接口，各项属性与修改后的数据相符，该接口所含的各指标的筛选条件与修改过的条件相符。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-31-00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-31-004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
+2.点击菜单 指标接口管理--&gt;指标接口维护
+3.选择“已生效”标签，点击“测试接口2”右侧的编辑按钮，系统弹出指标接口配置窗口
+4.输入以下内容
+   接口失效时间：2021-12-31
+   申请备注：测试接口2，延长有效期。增加接口指标。
+5.点击窗口下方【确定】按钮
+6.点击页面左侧“待审批”标签
+7.点击“测试接口2”
+8.点击页面右侧“新增”按钮，系统显示指标列表。
+9.在指标列表中勾选”小微企业数量“，点击“确定”。该指标被加入指标接口。
+10.在页面左侧勾选“大专学历以上人口数量“，点击”删除“按钮，将该指标从接口指标列表中删除。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用admin用户或拥有【指标维护】权限的用户登录系统
+2.点击菜单 指标接口管理--&gt;指标接口维护
+3.选择“已生效”标签，点击“测试接口2”右侧的删除按钮
+4.在提示确认窗口中点击“确定”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“待审批”标签页中可以看到待审批的接口删除请求，“已生效”标签页中的指标接口列表无变化。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -22204,25 +22312,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB32C-4CD7-4DCC-A4B3-437C5134071D}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0BF3F-25F4-488B-8733-E9BF001B66DE}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="65.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.9140625" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="52" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="22.58203125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="23.9140625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" style="52" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31">
+    <row r="1" spans="1:9" ht="15.5">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -22251,35 +22362,242 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="98">
-      <c r="A2" s="52" t="s">
-        <v>5684</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>5674</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>5688</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>5685</v>
+    <row r="2" spans="1:9" ht="112">
+      <c r="A2" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>329</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>5686</v>
-      </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52" t="s">
-        <v>5676</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>5687</v>
+        <v>383</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="252">
+      <c r="A3" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="266">
+      <c r="A4" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="154">
+      <c r="A5" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="154">
+      <c r="A6" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="168">
+      <c r="A7" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="266">
+      <c r="A8" s="47" t="s">
+        <v>5610</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>5611</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>5612</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>5613</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="266">
+      <c r="A9" s="47" t="s">
+        <v>5615</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>5616</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>5617</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>5618</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>5613</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="154">
+      <c r="A10" s="47" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>5620</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>5617</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>5622</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>5613</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>5623</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -64097,303 +64415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0BF3F-25F4-488B-8733-E9BF001B66DE}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B75E71-A0AB-47EA-858C-994CF10C7BDF}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="13.08203125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="52" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="52" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="22.58203125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="23.9140625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" style="52" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="52"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.5">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="112">
-      <c r="A2" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="252">
-      <c r="A3" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="266">
-      <c r="A4" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="154">
-      <c r="A5" s="47" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="154">
-      <c r="A6" s="47" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="168">
-      <c r="A7" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="266">
-      <c r="A8" s="47" t="s">
-        <v>5610</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>5611</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>5612</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>5613</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>5614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="266">
-      <c r="A9" s="47" t="s">
-        <v>5615</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>5616</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>5617</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>5618</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>5613</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>5619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="154">
-      <c r="A10" s="47" t="s">
-        <v>5621</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>5620</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>5617</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>5622</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>5613</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>5623</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B75E71-A0AB-47EA-858C-994CF10C7BDF}">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -64487,8 +64513,169 @@
       <c r="H3" s="52" t="s">
         <v>5676</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="47" t="s">
+        <v>5694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="210">
+      <c r="A4" s="47" t="s">
+        <v>5695</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>5693</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>5697</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>5694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="56">
+      <c r="A5" s="47" t="s">
+        <v>5696</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>5693</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>5699</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>5700</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB32C-4CD7-4DCC-A4B3-437C5134071D}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.9140625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="98">
+      <c r="A2" s="52" t="s">
         <v>5683</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>5687</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>5685</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="98">
+      <c r="A3" s="47" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>5689</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>5690</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>5691</v>
       </c>
     </row>
   </sheetData>

--- a/test-case/测试用例/测试用例.xlsx
+++ b/test-case/测试用例/测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\metric-sys\test-case\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009AE04-6D4F-40AD-9C60-25455C61D4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B110468-F43C-4917-A01C-8EA2B2050918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="599" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="4330" windowWidth="28040" windowHeight="16680" tabRatio="599" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="5" r:id="rId1"/>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12042" uniqueCount="5701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12074" uniqueCount="5717">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -21448,6 +21448,126 @@
   <si>
     <t>在“待审批”标签页中可以看到待审批的接口删除请求，“已生效”标签页中的指标接口列表无变化。</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批通过修改指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批驳回修改指标接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、使用标准测试数据集
+2、执行测试用例3-31-00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在“已生效”标签页中可以看到审批通过的指标接口，且指标接口所含指标与修改内容相符。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-32-00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-32-004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-62-010</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息管理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增部门信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、使用标注测试数据集
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用admin用户登录系统。
+2. 在菜单中选择“系统管理--&gt;部门信息维护”。
+3. 系统显示部门信息查询列表，
+a) 可以在“部门名称”输入框完整或部分的部门名称筛选匹配的部门。
+b) 可以在“部门代码”输入框中输入部门代码查询指定的部门。
+4. 点击页面右上角的“新增”按钮，系统显示部门新增窗口，输入以下信息：
+   部门代码：X001
+   部门名称：测试部门
+   是否指标管理部门：否
+5. 点击“确定”
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的“测试部门”可以在部门列表中查到。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-62-011</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改部门名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用admin用户登录系统。
+2. 在菜单中选择“系统管理--&gt;部门信息维护”。
+3. 系统显示部门信息查询列表，
+4. 在“部门名称”输入框中输入“测试部门"，点击”查询“，系统在部门列表中显示“测试部门”的信息条目。
+5. 点击该条目的”部门名称“列的内容，将部门名称修改为”测试部门-修改“，点击该列右侧的提交图标。
+6. 在弹出的确认对话框中点击“确定”
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在部门列表中可以看到原”测试部门”的名称被改为”测试部门-修改“。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -22313,10 +22433,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0BF3F-25F4-488B-8733-E9BF001B66DE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -22594,6 +22714,58 @@
       </c>
       <c r="I10" s="47" t="s">
         <v>5623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="196">
+      <c r="A11" s="47" t="s">
+        <v>5707</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>5710</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>5711</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>5613</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="126">
+      <c r="A12" s="47" t="s">
+        <v>5713</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>5710</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>5715</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>5613</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>5716</v>
       </c>
     </row>
   </sheetData>
@@ -64418,8 +64590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B75E71-A0AB-47EA-858C-994CF10C7BDF}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -64578,10 +64750,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CEB32C-4CD7-4DCC-A4B3-437C5134071D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -64678,6 +64850,60 @@
         <v>5691</v>
       </c>
     </row>
+    <row r="4" spans="1:9" ht="98">
+      <c r="A4" s="47" t="s">
+        <v>5705</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>5703</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>5685</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="98">
+      <c r="A5" s="47" t="s">
+        <v>5706</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>5703</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>5690</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>5691</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-case/测试用例/测试用例.xlsx
+++ b/test-case/测试用例/测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\metric-sys\test-case\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73047F9A-EABF-452E-B193-DA0A5B6F5AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45960DA-01B1-4A03-91BF-2B6FC7646A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7430" yWindow="2220" windowWidth="28040" windowHeight="18070" tabRatio="599" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="1720" windowWidth="28040" windowHeight="18070" tabRatio="743" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="5" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="指标接口维护" sheetId="13" r:id="rId8"/>
     <sheet name="指标接口审批" sheetId="14" r:id="rId9"/>
     <sheet name="系统管理" sheetId="10" r:id="rId10"/>
-    <sheet name="公共指标体系" sheetId="3" r:id="rId11"/>
-    <sheet name="卫健委指标体系" sheetId="4" r:id="rId12"/>
-    <sheet name="用户列表" sheetId="11" r:id="rId13"/>
-    <sheet name="机构信息表" sheetId="12" r:id="rId14"/>
+    <sheet name="指标数据加载" sheetId="15" r:id="rId11"/>
+    <sheet name="公共指标体系" sheetId="3" r:id="rId12"/>
+    <sheet name="卫健委指标体系" sheetId="4" r:id="rId13"/>
+    <sheet name="用户列表" sheetId="11" r:id="rId14"/>
+    <sheet name="机构信息表" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">机构信息表!$A$1:$D$2789</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">机构信息表!$A$1:$D$2789</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -42,6 +43,43 @@
   </authors>
   <commentList>
     <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yu Xiao:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可以通过执行脚本校验或通过比对截图校验。
+如果使用脚本校验，需提供校验用脚本，以及脚本调用说明。
+如果通过截图对比校验，需要提供测试前及预期结果截图。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yu Xiao</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A223BFBB-EF68-49C9-B6A5-572FF13F883B}">
       <text>
         <r>
           <rPr>
@@ -369,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12113" uniqueCount="5739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12162" uniqueCount="5766">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -21696,6 +21734,181 @@
   </si>
   <si>
     <t>在页面左侧指标维度列表中可以看到新增的指标维度，点击该维度，页面右侧显示的维度属性及维度粒度与录入的数据相符。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-45-00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改指标维度</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标注测试数据集
+2、执行用例4-45-002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用admin用户登录系统。
+2. 在菜单中选择“系统管理--&gt;指标仓库管理”。
+3. 页面左侧显示的是指标仓库中现有对象列表，包括指标维度和指标主表两部分。
+4. 在指标维度列表中点击“测试维度”条目。
+5. 修改维度的下列属性：
+    维度名称：测试维度1
+    维度代码：1001
+    维度物理表名称：test1_dim
+6. 点击维度粒度“新增”按钮，输入粒度信息：
+    字段名称：粒度3
+    粒度级别：2
+    数据类型：STRING
+    物理名称：d_col_3
+    字段说明：测试维度粒度1
+7. 点击“保存”按钮
+8. 在维度表单中点击“保存”按钮保存修改后的维度信息。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在页面左侧指标维度列表中可以看到修改后的指标维度，点击该维度，页面右侧显示的维度属性及维度粒度与修改后数据相符。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-25-001</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标数据加载</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标准测试数据集</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxop用户登录
+2. 选择菜单功能“指标体系管理-指标数据加载”
+3. 页面左侧显示对该用户可见的指标目录及各目录下的指标列表
+4. 在指标目录中选择“大专学历以上人口数量“，点击“添加”按钮将其加入右侧待加载指标列表。
+5. 在页面右侧待加载指标列表中勾选“大专学历以上人口数量”，点击列表上方的”开始加载“按钮。
+6. 等待几秒钟，点击“刷新状态“按钮。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用默认参数执行指标数据加载</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>待加载列表中的“大专学历以上人口数量”指标的加载状态显示为数据加载成功</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指标数据查询分析功能中，可以查到“大专学历以上人口数量”指标的日期为2020-06-20的数据。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-25-002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自定义参数执行指标数据加载</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxop用户登录
+2. 选择菜单功能“指标体系管理-指标数据加载”
+3. 页面左侧显示对该用户可见的指标目录及各目录下的指标列表
+4. 在指标目录中选择“大专学历以上人口数量“，点击“添加”按钮将其加入右侧待加载指标列表。
+5. 点击待加载指标列表上方的“参数设置”按钮。
+6. 在“指标加载参数”窗口中设置参数“sys_date”为“2020-01-01”，点击“确定”
+7. 在页面右侧待加载指标列表中勾选“大专学历以上人口数量”，点击列表上方的”开始加载“按钮。
+8. 等待几秒钟，点击“刷新状态“按钮。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指标数据查询分析功能中，可以查到“大专学历以上人口数量”指标的日期为2020-01-01的数据。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用标准测试数据集
+2、执行用例2-25-001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-25-003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用默认参数执行多个指标数据加载</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxop用户登录
+2. 选择菜单功能“指标体系管理-指标数据加载”
+3. 页面左侧显示对该用户可见的指标目录及各目录下的指标列表
+4. 在指标目录中选择“小微企业数量“，”中型企业数量“，”大型企业数量“，点击“添加”按钮将其加入右侧待加载指标列表。
+5. 在页面右侧勾选全部待加载指标列表中的指标，点击列表上方的”开始加载“按钮。
+6. 反复点击“刷新状态“按钮，直到待加载指标列表中所有的指标的加载状态都显示为“加载成功“。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指标数据查询分析功能中，可以查到“大专学历以上人口数量”，“小微企业数量“，”中型企业数量“，”大型企业数量“指标的日期为2020-06-20的数据。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标加载取消</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、使用标准测试数据集
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-25-004</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用jxop用户登录
+2. 选择菜单功能“指标体系管理-指标数据加载”
+3. 页面左侧显示对该用户可见的指标目录及各目录下的指标列表
+4. 点击指标目录列表上方的“全部添加”按钮。
+5. 在页面右侧勾选全部待加载指标列表中的指标，点击列表上方的”开始加载“按钮。
+6. 立即点击“取消加载“按钮。
+7. 反复点击“刷新状态”按钮，直到所有指标加载状态都变为“加载成功”，“放弃加载”，“加载取消”。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指标数据查询分析功能中，可以查到显示为“加载成功”的指标的日期为2020-06-20的数据。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分指标加载成功，其他的都显示为“放弃加载”或“加载取消”。指标加载的执行结果取决于提交取消加载请求的时机，在不同的测试环境和操作速度下会有变化。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -22562,10 +22775,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0BF3F-25F4-488B-8733-E9BF001B66DE}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -23024,6 +23237,32 @@
         <v>5738</v>
       </c>
     </row>
+    <row r="18" spans="1:9" ht="252">
+      <c r="A18" s="47" t="s">
+        <v>5739</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>5741</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>5742</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>5606</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>5743</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23032,6 +23271,168 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0996739-D11D-4401-8B5A-B79D714E41E1}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.9140625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="16.08203125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.4140625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="52" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="52" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="52" customWidth="1"/>
+    <col min="9" max="9" width="37.75" style="52" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.5">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="126">
+      <c r="A2" s="47" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>5746</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>5747</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>5749</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168">
+      <c r="A3" s="47" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>5746</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>5753</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>5749</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="154">
+      <c r="A4" s="47" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>5755</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>5758</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>5749</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>5759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="140">
+      <c r="A5" s="47" t="s">
+        <v>5762</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>5763</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>5765</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72745ED9-4FB7-44D6-9FC4-D66B36CB31A4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -23149,7 +23550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC77FF-A376-4934-BD20-E9C7927F74A0}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -23272,7 +23673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628B8782-FF88-4718-8231-E340CD03B1BF}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -23570,7 +23971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41209079-642E-4F6B-82D8-AFD965546F83}">
   <dimension ref="A1:D2789"/>
   <sheetViews>
